--- a/巡检邮件统计_2025-08-27.xlsx
+++ b/巡检邮件统计_2025-08-27.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -50,20 +50,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFC7CE"/>
         <bgColor rgb="00FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF2CC"/>
-        <bgColor rgb="00FFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -91,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -108,13 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -634,9 +616,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="J2" s="4" t="inlineStr">
+        <is>
+          <t>15:40</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -644,9 +626,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="L2" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="L2" s="4" t="inlineStr">
+        <is>
+          <t>16:40</t>
         </is>
       </c>
       <c r="M2" s="2" t="inlineStr"/>
@@ -722,9 +704,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="N3" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>15:36</t>
         </is>
       </c>
       <c r="O3" s="2" t="inlineStr">
@@ -768,9 +750,9 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>16:32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr"/>
@@ -820,7 +802,7 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="5" t="inlineStr">
         <is>
           <t>巡检失败</t>
         </is>
@@ -830,9 +812,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="J5" s="7" t="inlineStr">
-        <is>
-          <t>巡检中</t>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>巡检失败</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr"/>
@@ -841,7 +823,7 @@
       <c r="N5" s="2" t="inlineStr"/>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr"/>
@@ -1030,9 +1012,9 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="N8" s="4" t="inlineStr">
+        <is>
+          <t>15:32</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
@@ -1096,9 +1078,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="L9" s="4" t="inlineStr">
+        <is>
+          <t>16:31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr"/>
@@ -1164,9 +1146,9 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="L10" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="L10" s="4" t="inlineStr">
+        <is>
+          <t>16:04</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr"/>
@@ -1232,9 +1214,9 @@
           <t>16:10</t>
         </is>
       </c>
-      <c r="L11" s="5" t="inlineStr">
-        <is>
-          <t>暂未巡检</t>
+      <c r="L11" s="4" t="inlineStr">
+        <is>
+          <t>16:13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr"/>
@@ -1300,9 +1282,9 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="L12" s="7" t="inlineStr">
-        <is>
-          <t>巡检中</t>
+      <c r="L12" s="4" t="inlineStr">
+        <is>
+          <t>15:41</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr"/>
@@ -1315,9 +1297,9 @@
       <c r="P12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="O13" s="8" t="inlineStr">
-        <is>
-          <t>96.77%</t>
+      <c r="O13" s="6" t="inlineStr">
+        <is>
+          <t>95.12%</t>
         </is>
       </c>
     </row>
